--- a/evaluation/results/hybrid/autoencoder/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2245989304812834</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.3874538745387454</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.6356228172293364</v>
       </c>
       <c r="H2">
-        <v>0.4925093632958801</v>
+        <v>0.7978196896736223</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="K2">
-        <v>526</v>
+        <v>396</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9494584837545126</v>
+        <v>0.9826302729528535</v>
       </c>
       <c r="C2">
-        <v>0.9850187265917603</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="D2">
-        <v>0.9669117647058824</v>
+        <v>0.8452508004268944</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2245989304812834</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
       <c r="C4">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
       <c r="D4">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
       <c r="E4">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4747292418772563</v>
+        <v>0.5573528723254834</v>
       </c>
       <c r="C5">
-        <v>0.4925093632958801</v>
+        <v>0.7457865168539326</v>
       </c>
       <c r="D5">
-        <v>0.4834558823529412</v>
+        <v>0.5349248654540889</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9021545023574906</v>
+        <v>0.9402538771608026</v>
       </c>
       <c r="C6">
-        <v>0.9359430604982206</v>
+        <v>0.7419928825622776</v>
       </c>
       <c r="D6">
-        <v>0.9187382248272975</v>
+        <v>0.8143286432054049</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>526</v>
+        <v>396</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
